--- a/jygs_info.xlsx
+++ b/jygs_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Documents/Others/Web_Auto_Fill/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Others\Koyou-Hoken-autofill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B49232-418C-704E-9232-C9D86680E21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6455C6-C34F-440A-A7B1-D1306B3E57AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="500" windowWidth="37300" windowHeight="20960" xr2:uid="{6DF7C0F7-EF48-AD47-859F-F90CFCB90D92}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6DF7C0F7-EF48-AD47-859F-F90CFCB90D92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>事業所名称</t>
     <rPh sb="0" eb="3">
@@ -174,6 +174,13 @@
   </si>
   <si>
     <t>12345</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社AERIALCONGLOMERATE</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -181,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -555,12 +562,12 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -586,7 +593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -600,7 +607,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
@@ -630,7 +637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>

--- a/jygs_info.xlsx
+++ b/jygs_info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Others\Koyou-Hoken-autofill\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\InnovationCompany\Desktop\Kaneko_Biboroku\Hoken-autofill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6455C6-C34F-440A-A7B1-D1306B3E57AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E859114-B8E4-4A68-9A6A-DEF64F0DEECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6DF7C0F7-EF48-AD47-859F-F90CFCB90D92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6DF7C0F7-EF48-AD47-859F-F90CFCB90D92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>事業所名称</t>
     <rPh sb="0" eb="3">
@@ -181,6 +179,10 @@
     <rPh sb="0" eb="4">
       <t>カブシキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>666666</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -559,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF02B467-D024-B941-8AA1-D7564E961948}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -630,8 +632,8 @@
       <c r="L2" s="2">
         <v>4444</v>
       </c>
-      <c r="M2" s="2">
-        <v>6666</v>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="N2" s="2">
         <v>1</v>
@@ -674,12 +676,28 @@
       <c r="L3" s="2">
         <v>4444</v>
       </c>
-      <c r="M3" s="2">
-        <v>6666</v>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
       </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
